--- a/model-ontology/src/ontology/Data/1F00/pds-namespace-registry.xlsx
+++ b/model-ontology/src/ontology/Data/1F00/pds-namespace-registry.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Change Log" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Namespaces!$A$10:$Q$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Namespaces!$A$10:$Q$26</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="473">
   <si>
     <t>Registration Date</t>
   </si>
@@ -1450,84 +1450,6 @@
   </si>
   <si>
     <t>smartinez at sciops.esa.int</t>
-  </si>
-  <si>
-    <t>Added ESA/PSA namespaces for mission LDDs.</t>
-  </si>
-  <si>
-    <t>mer</t>
-  </si>
-  <si>
-    <t>mission/mer</t>
-  </si>
-  <si>
-    <t>http://pds.nasa.gov/pds4/mission/mer/v1</t>
-  </si>
-  <si>
-    <t>MER</t>
-  </si>
-  <si>
-    <t>PDS Geo Node</t>
-  </si>
-  <si>
-    <t>Namespace for the Mars Exploration Rovers dictionary.</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>http://pds.nasa.gov/pds4/survey/v1</t>
-  </si>
-  <si>
-    <t>PDS4_SURVEY</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>PDS SBN/PSI</t>
-  </si>
-  <si>
-    <t>Jesse Stone</t>
-  </si>
-  <si>
-    <t>jstone at psi.edu</t>
-  </si>
-  <si>
-    <t>This dictionary provides classes, attributes, and rules for describing the circumstances surrounding sky survey observations.</t>
-  </si>
-  <si>
-    <t>nucspec</t>
-  </si>
-  <si>
-    <t>http://pds.nasa.gov/pds4/nucspec/v1</t>
-  </si>
-  <si>
-    <t>PDS4_NUCSPEC</t>
-  </si>
-  <si>
-    <t>This dictionary provides classes, attributes, and rules for describing the circumstances surrounding nuclear spectroscopy observations.</t>
-  </si>
-  <si>
-    <t>chan1</t>
-  </si>
-  <si>
-    <t>mission/chan1</t>
-  </si>
-  <si>
-    <t>http://pds.nasa.gov/pds4/mission/chan1/v1</t>
-  </si>
-  <si>
-    <t>PDS GEO and PDS IMG</t>
-  </si>
-  <si>
-    <t>Susan Slavney or Trent Hare</t>
-  </si>
-  <si>
-    <t>Chandrayaan-1 mission dictionary</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PDS4_CHAN1</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1596,6 +1518,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1693,14 +1621,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1728,10 +1661,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1740,6 +1683,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1747,6 +1693,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1758,60 +1710,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2125,467 +2027,460 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD56"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="23" style="24" customWidth="1"/>
-    <col min="13" max="13" width="38.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="53.85546875" style="24" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="24" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="24" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="24" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="24" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="24"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="46.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="53.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="2" customWidth="1"/>
+    <col min="17" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="47.1" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="38" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:20" s="35" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A2" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="32">
         <v>41002</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T3" s="19"/>
-    </row>
-    <row r="4" spans="1:20" s="38" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="R3" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T3" s="31"/>
+    </row>
+    <row r="4" spans="1:20" s="35" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A4" s="34" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O5" s="17" t="s">
+      <c r="N5" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="32">
         <v>42811</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T5" s="19"/>
-    </row>
-    <row r="6" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="R5" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" ht="31.5">
+      <c r="A6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O6" s="18" t="s">
+      <c r="N6" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="32">
         <v>42922</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="R6" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T6" s="19"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="R6" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="N7" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O7" s="17" t="s">
+      <c r="N7" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="33">
         <v>42277</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T7" s="19">
-        <v>42277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="R7" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="N8" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" s="17" t="s">
+      <c r="N8" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="32">
         <v>42811</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T8" s="19"/>
-    </row>
-    <row r="9" spans="1:20" s="38" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="R8" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S8" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" s="35" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A9" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="31" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:20" s="1" customFormat="1">
+      <c r="A10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O10" s="18" t="s">
+      <c r="N10" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="32">
         <v>42118</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="27" t="s">
         <v>22</v>
       </c>
       <c r="R10" s="26" t="s">
@@ -2594,58 +2489,58 @@
       <c r="S10" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="T10" s="27"/>
-    </row>
-    <row r="11" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" s="18" t="s">
+      <c r="N11" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="32">
         <v>41002</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="R11" s="26" t="s">
@@ -2654,58 +2549,58 @@
       <c r="S11" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="T11" s="27"/>
-    </row>
-    <row r="12" spans="1:20" s="32" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="1:20" ht="31.5">
+      <c r="A12" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="N12" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O12" s="18" t="s">
+      <c r="N12" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="32">
         <v>42299</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="27" t="s">
         <v>64</v>
       </c>
       <c r="R12" s="26" t="s">
@@ -2714,58 +2609,58 @@
       <c r="S12" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="T12" s="27"/>
-    </row>
-    <row r="13" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="T12" s="31"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="N13" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O13" s="18" t="s">
+      <c r="N13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="32">
         <v>41435</v>
       </c>
-      <c r="Q13" s="18" t="s">
+      <c r="Q13" s="27" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="26" t="s">
@@ -2774,58 +2669,58 @@
       <c r="S13" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="T13" s="27"/>
-    </row>
-    <row r="14" spans="1:20" s="32" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" spans="1:20" ht="31.5">
+      <c r="A14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="28" t="s">
         <v>273</v>
       </c>
       <c r="M14" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="N14" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" s="18" t="s">
+      <c r="N14" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="32">
         <v>42124</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="27" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="26" t="s">
@@ -2834,58 +2729,58 @@
       <c r="S14" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="T14" s="27"/>
-    </row>
-    <row r="15" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="T14" s="31"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="N15" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O15" s="18" t="s">
+      <c r="N15" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="32">
         <v>41002</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="27" t="s">
         <v>24</v>
       </c>
       <c r="R15" s="26" t="s">
@@ -2894,58 +2789,58 @@
       <c r="S15" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="T15" s="27"/>
-    </row>
-    <row r="16" spans="1:20" s="32" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="T15" s="31"/>
+    </row>
+    <row r="16" spans="1:20" ht="31.5">
+      <c r="A16" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="28" t="s">
         <v>276</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="N16" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O16" s="18" t="s">
+      <c r="N16" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="32">
         <v>43734</v>
       </c>
-      <c r="Q16" s="18" t="s">
+      <c r="Q16" s="28" t="s">
         <v>282</v>
       </c>
       <c r="R16" s="26" t="s">
@@ -2954,58 +2849,58 @@
       <c r="S16" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="T16" s="27"/>
-    </row>
-    <row r="17" spans="1:20" s="32" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="T16" s="31"/>
+    </row>
+    <row r="17" spans="1:20" ht="31.5">
+      <c r="A17" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="28" t="s">
         <v>277</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="N17" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O17" s="18" t="s">
+      <c r="N17" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="32">
         <v>43734</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="Q17" s="28" t="s">
         <v>282</v>
       </c>
       <c r="R17" s="26" t="s">
@@ -3014,1349 +2909,1340 @@
       <c r="S17" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="T17" s="27"/>
-    </row>
-    <row r="18" spans="1:20" s="31" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>489</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="T17" s="31"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="F18" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="O18" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="P18" s="28">
-        <v>44110</v>
-      </c>
-      <c r="Q18" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="R18" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="S18" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="T18" s="30"/>
-    </row>
-    <row r="19" spans="1:20" s="32" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="I18" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="P18" s="32">
+        <v>42118</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S18" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T18" s="31"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="P19" s="32">
+        <v>41002</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T19" s="31"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J20" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K20" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L20" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M20" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="P19" s="21">
+      <c r="N20" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="32">
+        <v>41002</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S20" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T20" s="31"/>
+    </row>
+    <row r="21" spans="1:20" ht="31.5">
+      <c r="A21" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="P21" s="32">
+        <v>43734</v>
+      </c>
+      <c r="Q21" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="R21" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S21" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T21" s="31"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="32">
+        <v>41002</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T22" s="31"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="P23" s="32">
+        <v>41002</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S23" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T23" s="31"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="P24" s="32">
+        <v>41589</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S24" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T24" s="31"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="32">
+        <v>42870</v>
+      </c>
+      <c r="Q25" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="R25" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S25" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T25" s="31"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="32">
         <v>42118</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="Q26" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S19" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T19" s="27"/>
-    </row>
-    <row r="20" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="R26" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S26" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T26" s="31"/>
+    </row>
+    <row r="27" spans="1:20" s="35" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="31.5">
+      <c r="A28" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="18" t="s">
+      <c r="F28" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O20" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P20" s="21">
-        <v>41002</v>
-      </c>
-      <c r="Q20" s="18" t="s">
+      <c r="I28" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="P28" s="32">
+        <v>42089</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S28" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T28" s="31"/>
+    </row>
+    <row r="29" spans="1:20" ht="31.5">
+      <c r="A29" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="32">
+        <v>42119</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="R29" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S29" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T29" s="31"/>
+    </row>
+    <row r="30" spans="1:20" ht="31.5">
+      <c r="A30" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P30" s="32">
+        <v>41837</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S30" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T30" s="31"/>
+    </row>
+    <row r="31" spans="1:20" ht="31.5">
+      <c r="A31" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P31" s="32">
+        <v>41837</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S31" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T31" s="31"/>
+    </row>
+    <row r="32" spans="1:20" ht="31.5">
+      <c r="A32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="P32" s="32">
+        <v>41600</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S32" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T32" s="31"/>
+    </row>
+    <row r="33" spans="1:21" ht="31.5">
+      <c r="A33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="P33" s="32">
+        <v>42220</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="R33" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S33" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T33" s="31"/>
+    </row>
+    <row r="34" spans="1:21" ht="31.5">
+      <c r="A34" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="P34" s="32">
+        <v>42158</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R34" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S34" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T34" s="31"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="P35" s="32">
+        <v>42158</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S35" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T35" s="31"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="P36" s="32">
+        <v>42650</v>
+      </c>
+      <c r="Q36" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="R20" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S20" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T20" s="27"/>
-    </row>
-    <row r="21" spans="1:20" s="32" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="R36" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S36" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T36" s="31"/>
+    </row>
+    <row r="37" spans="1:21" ht="31.5">
+      <c r="A37" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="18" t="s">
+      <c r="F37" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="P21" s="21">
-        <v>41002</v>
-      </c>
-      <c r="Q21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S21" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T21" s="27"/>
-    </row>
-    <row r="22" spans="1:20" s="32" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="P22" s="21">
-        <v>43734</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="R22" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S22" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T22" s="27"/>
-    </row>
-    <row r="23" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="P23" s="21">
-        <v>41002</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S23" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T23" s="27"/>
-    </row>
-    <row r="24" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="18" t="s">
+      <c r="I37" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="L24" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="N24" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="P24" s="21">
-        <v>41002</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R24" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S24" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T24" s="27"/>
-    </row>
-    <row r="25" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="P25" s="21">
-        <v>41589</v>
-      </c>
-      <c r="Q25" s="18" t="s">
+      <c r="L37" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="N37" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O37" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="P37" s="32">
+        <v>41771</v>
+      </c>
+      <c r="Q37" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="R25" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S25" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T25" s="27"/>
-    </row>
-    <row r="26" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O26" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="P26" s="21">
-        <v>42870</v>
-      </c>
-      <c r="Q26" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="R26" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S26" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T26" s="27"/>
-    </row>
-    <row r="27" spans="1:20" s="31" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="L27" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="M27" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="O27" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="P27" s="28">
-        <v>44110</v>
-      </c>
-      <c r="Q27" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="R27" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="S27" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="T27" s="30"/>
-    </row>
-    <row r="28" spans="1:20" s="32" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="N28" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O28" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="P28" s="21">
-        <v>42118</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S28" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T28" s="27"/>
-    </row>
-    <row r="29" spans="1:20" s="38" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="R37" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S37" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T37" s="31"/>
+    </row>
+    <row r="38" spans="1:21" ht="30">
+      <c r="A38" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="18" t="s">
+      <c r="H38" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="N38" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="P38" s="31">
+        <v>43788</v>
+      </c>
+      <c r="Q38" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S38" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="T38" s="31"/>
+      <c r="U38" s="25"/>
+    </row>
+    <row r="39" spans="1:21" ht="30">
+      <c r="A39" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O30" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="P30" s="21">
-        <v>42089</v>
-      </c>
-      <c r="Q30" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R30" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S30" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T30" s="27"/>
-    </row>
-    <row r="31" spans="1:20" s="32" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="H39" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="P39" s="31">
+        <v>43788</v>
+      </c>
+      <c r="Q39" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="R39" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="S39" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="T39" s="31"/>
+      <c r="U39" s="25"/>
+    </row>
+    <row r="40" spans="1:21" ht="30">
+      <c r="A40" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="N31" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O31" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="P31" s="21">
-        <v>42119</v>
-      </c>
-      <c r="Q31" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="R31" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S31" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T31" s="27"/>
-    </row>
-    <row r="32" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="N32" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O32" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="P32" s="21">
-        <v>41837</v>
-      </c>
-      <c r="Q32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S32" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T32" s="27"/>
-    </row>
-    <row r="33" spans="1:21" s="32" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O33" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="P33" s="21">
-        <v>41837</v>
-      </c>
-      <c r="Q33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S33" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T33" s="27"/>
-    </row>
-    <row r="34" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O34" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="P34" s="21">
-        <v>43935</v>
-      </c>
-      <c r="Q34" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="R34" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S34" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T34" s="27"/>
-    </row>
-    <row r="35" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O35" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="P35" s="21">
-        <v>41600</v>
-      </c>
-      <c r="Q35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="R35" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S35" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T35" s="27"/>
-    </row>
-    <row r="36" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="M36" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O36" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="P36" s="21">
-        <v>42220</v>
-      </c>
-      <c r="Q36" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="R36" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S36" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T36" s="27"/>
-    </row>
-    <row r="37" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="P37" s="21">
-        <v>42158</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="R37" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S37" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T37" s="27"/>
-    </row>
-    <row r="38" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L38" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="P38" s="21">
-        <v>42158</v>
-      </c>
-      <c r="Q38" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="R38" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S38" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T38" s="27"/>
-    </row>
-    <row r="39" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="N39" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O39" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="P39" s="21">
-        <v>42650</v>
-      </c>
-      <c r="Q39" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="R39" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S39" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T39" s="27"/>
-    </row>
-    <row r="40" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="N40" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O40" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="P40" s="21">
-        <v>41771</v>
-      </c>
-      <c r="Q40" s="18" t="s">
-        <v>38</v>
+      <c r="H40" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="O40" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="P40" s="31">
+        <v>43788</v>
+      </c>
+      <c r="Q40" s="26" t="s">
+        <v>316</v>
       </c>
       <c r="R40" s="26" t="s">
         <v>304</v>
       </c>
       <c r="S40" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T40" s="27"/>
-    </row>
-    <row r="41" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="T40" s="31"/>
+      <c r="U40" s="25"/>
+    </row>
+    <row r="41" spans="1:21" ht="30">
       <c r="A41" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>306</v>
+        <v>322</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="20" t="s">
+        <v>323</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
@@ -4364,58 +4250,52 @@
       <c r="H41" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="I41" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="J41" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="K41" s="26" t="s">
-        <v>305</v>
-      </c>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
       <c r="L41" s="26" t="s">
         <v>308</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N41" s="26" t="s">
         <v>110</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="P41" s="27">
+        <v>326</v>
+      </c>
+      <c r="P41" s="31">
         <v>43788</v>
       </c>
       <c r="Q41" s="26" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="R41" s="26" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="S41" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T41" s="27"/>
-      <c r="U41" s="34"/>
-    </row>
-    <row r="42" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T41" s="31"/>
+      <c r="U41" s="25"/>
+    </row>
+    <row r="42" spans="1:21" ht="30">
       <c r="A42" s="26" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B42" s="26"/>
-      <c r="C42" s="33" t="s">
-        <v>312</v>
+      <c r="C42" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>20</v>
@@ -4423,15 +4303,9 @@
       <c r="H42" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="I42" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="J42" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="K42" s="26" t="s">
-        <v>305</v>
-      </c>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
       <c r="L42" s="26" t="s">
         <v>308</v>
       </c>
@@ -4442,9 +4316,9 @@
         <v>110</v>
       </c>
       <c r="O42" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="P42" s="27">
+        <v>331</v>
+      </c>
+      <c r="P42" s="31">
         <v>43788</v>
       </c>
       <c r="Q42" s="26" t="s">
@@ -4456,25 +4330,25 @@
       <c r="S42" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T42" s="27"/>
-      <c r="U42" s="34"/>
-    </row>
-    <row r="43" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T42" s="31"/>
+      <c r="U42" s="25"/>
+    </row>
+    <row r="43" spans="1:21" ht="30">
       <c r="A43" s="26" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B43" s="26"/>
-      <c r="C43" s="33" t="s">
-        <v>318</v>
+      <c r="C43" s="20" t="s">
+        <v>333</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -4495,39 +4369,39 @@
         <v>110</v>
       </c>
       <c r="O43" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="P43" s="27">
+        <v>336</v>
+      </c>
+      <c r="P43" s="31">
         <v>43788</v>
       </c>
       <c r="Q43" s="26" t="s">
         <v>316</v>
       </c>
       <c r="R43" s="26" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="S43" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T43" s="27"/>
-      <c r="U43" s="34"/>
-    </row>
-    <row r="44" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T43" s="31"/>
+      <c r="U43" s="25"/>
+    </row>
+    <row r="44" spans="1:21" ht="30">
       <c r="A44" s="26" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="B44" s="26"/>
-      <c r="C44" s="33" t="s">
-        <v>323</v>
+      <c r="C44" s="20" t="s">
+        <v>338</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -4548,9 +4422,9 @@
         <v>110</v>
       </c>
       <c r="O44" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="P44" s="27">
+        <v>341</v>
+      </c>
+      <c r="P44" s="31">
         <v>43788</v>
       </c>
       <c r="Q44" s="26" t="s">
@@ -4562,25 +4436,25 @@
       <c r="S44" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T44" s="27"/>
-      <c r="U44" s="34"/>
-    </row>
-    <row r="45" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T44" s="31"/>
+      <c r="U44" s="25"/>
+    </row>
+    <row r="45" spans="1:21" ht="30">
       <c r="A45" s="26" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B45" s="26"/>
-      <c r="C45" s="33" t="s">
-        <v>328</v>
+      <c r="C45" s="20" t="s">
+        <v>343</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
@@ -4601,9 +4475,9 @@
         <v>110</v>
       </c>
       <c r="O45" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="P45" s="27">
+        <v>346</v>
+      </c>
+      <c r="P45" s="31">
         <v>43788</v>
       </c>
       <c r="Q45" s="26" t="s">
@@ -4615,25 +4489,25 @@
       <c r="S45" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T45" s="27"/>
-      <c r="U45" s="34"/>
-    </row>
-    <row r="46" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T45" s="31"/>
+      <c r="U45" s="25"/>
+    </row>
+    <row r="46" spans="1:21" ht="30">
       <c r="A46" s="26" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="B46" s="26"/>
-      <c r="C46" s="33" t="s">
-        <v>333</v>
+      <c r="C46" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -4654,9 +4528,9 @@
         <v>110</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="P46" s="27">
+        <v>351</v>
+      </c>
+      <c r="P46" s="31">
         <v>43788</v>
       </c>
       <c r="Q46" s="26" t="s">
@@ -4668,25 +4542,25 @@
       <c r="S46" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T46" s="27"/>
-      <c r="U46" s="34"/>
-    </row>
-    <row r="47" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T46" s="31"/>
+      <c r="U46" s="25"/>
+    </row>
+    <row r="47" spans="1:21" ht="30">
       <c r="A47" s="26" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B47" s="26"/>
-      <c r="C47" s="33" t="s">
-        <v>338</v>
+      <c r="C47" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="E47" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>20</v>
@@ -4707,9 +4581,9 @@
         <v>110</v>
       </c>
       <c r="O47" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="P47" s="27">
+        <v>356</v>
+      </c>
+      <c r="P47" s="31">
         <v>43788</v>
       </c>
       <c r="Q47" s="26" t="s">
@@ -4721,25 +4595,25 @@
       <c r="S47" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T47" s="27"/>
-      <c r="U47" s="34"/>
-    </row>
-    <row r="48" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T47" s="31"/>
+      <c r="U47" s="25"/>
+    </row>
+    <row r="48" spans="1:21" ht="30">
       <c r="A48" s="26" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="B48" s="26"/>
-      <c r="C48" s="33" t="s">
-        <v>343</v>
+      <c r="C48" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -4760,9 +4634,9 @@
         <v>110</v>
       </c>
       <c r="O48" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="P48" s="27">
+        <v>361</v>
+      </c>
+      <c r="P48" s="31">
         <v>43788</v>
       </c>
       <c r="Q48" s="26" t="s">
@@ -4774,25 +4648,25 @@
       <c r="S48" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T48" s="27"/>
-      <c r="U48" s="34"/>
-    </row>
-    <row r="49" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T48" s="31"/>
+      <c r="U48" s="25"/>
+    </row>
+    <row r="49" spans="1:21" ht="30">
       <c r="A49" s="26" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="B49" s="26"/>
-      <c r="C49" s="33" t="s">
-        <v>348</v>
+      <c r="C49" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>20</v>
@@ -4813,9 +4687,9 @@
         <v>110</v>
       </c>
       <c r="O49" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="P49" s="27">
+        <v>366</v>
+      </c>
+      <c r="P49" s="31">
         <v>43788</v>
       </c>
       <c r="Q49" s="26" t="s">
@@ -4827,25 +4701,25 @@
       <c r="S49" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T49" s="27"/>
-      <c r="U49" s="34"/>
-    </row>
-    <row r="50" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T49" s="31"/>
+      <c r="U49" s="25"/>
+    </row>
+    <row r="50" spans="1:21" ht="30">
       <c r="A50" s="26" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B50" s="26"/>
-      <c r="C50" s="33" t="s">
-        <v>353</v>
+      <c r="C50" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -4866,9 +4740,9 @@
         <v>110</v>
       </c>
       <c r="O50" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="P50" s="27">
+        <v>371</v>
+      </c>
+      <c r="P50" s="31">
         <v>43788</v>
       </c>
       <c r="Q50" s="26" t="s">
@@ -4880,25 +4754,25 @@
       <c r="S50" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T50" s="27"/>
-      <c r="U50" s="34"/>
-    </row>
-    <row r="51" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T50" s="31"/>
+      <c r="U50" s="25"/>
+    </row>
+    <row r="51" spans="1:21" ht="30">
       <c r="A51" s="26" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="B51" s="26"/>
-      <c r="C51" s="33" t="s">
-        <v>358</v>
+      <c r="C51" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="E51" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
@@ -4919,9 +4793,9 @@
         <v>110</v>
       </c>
       <c r="O51" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="P51" s="27">
+        <v>376</v>
+      </c>
+      <c r="P51" s="31">
         <v>43788</v>
       </c>
       <c r="Q51" s="26" t="s">
@@ -4933,78 +4807,56 @@
       <c r="S51" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T51" s="27"/>
-      <c r="U51" s="34"/>
-    </row>
-    <row r="52" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>362</v>
-      </c>
+      <c r="T51" s="31"/>
+      <c r="U51" s="25"/>
+    </row>
+    <row r="52" spans="1:21" ht="15">
+      <c r="A52" s="26"/>
       <c r="B52" s="26"/>
-      <c r="C52" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>175</v>
-      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
-      <c r="L52" s="26" t="s">
-        <v>308</v>
-      </c>
+      <c r="L52" s="26"/>
       <c r="M52" s="26" t="s">
-        <v>471</v>
+        <v>110</v>
       </c>
       <c r="N52" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="O52" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="P52" s="27">
+      <c r="O52" s="26"/>
+      <c r="P52" s="31">
         <v>43788</v>
       </c>
-      <c r="Q52" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="R52" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="S52" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="T52" s="27"/>
-      <c r="U52" s="34"/>
-    </row>
-    <row r="53" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="25"/>
+    </row>
+    <row r="53" spans="1:21" ht="30">
       <c r="A53" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="33" t="s">
-        <v>368</v>
+        <v>377</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>378</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E53" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -5012,52 +4864,58 @@
       <c r="H53" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
+      <c r="I53" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>377</v>
+      </c>
       <c r="L53" s="26" t="s">
-        <v>308</v>
+        <v>380</v>
       </c>
       <c r="M53" s="26" t="s">
-        <v>471</v>
+        <v>257</v>
       </c>
       <c r="N53" s="26" t="s">
         <v>110</v>
       </c>
       <c r="O53" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="P53" s="27">
+        <v>381</v>
+      </c>
+      <c r="P53" s="31">
         <v>43788</v>
       </c>
       <c r="Q53" s="26" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="R53" s="26" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="S53" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T53" s="27"/>
-      <c r="U53" s="34"/>
-    </row>
-    <row r="54" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T53" s="31"/>
+      <c r="U53" s="25"/>
+    </row>
+    <row r="54" spans="1:21" ht="30">
       <c r="A54" s="26" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B54" s="26"/>
-      <c r="C54" s="33" t="s">
-        <v>373</v>
+      <c r="C54" s="20" t="s">
+        <v>384</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>20</v>
@@ -5065,143 +4923,176 @@
       <c r="H54" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="I54" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>377</v>
+      </c>
       <c r="L54" s="26" t="s">
-        <v>308</v>
+        <v>380</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N54" s="26" t="s">
         <v>110</v>
       </c>
       <c r="O54" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="P54" s="27">
+        <v>387</v>
+      </c>
+      <c r="P54" s="31">
         <v>43788</v>
       </c>
       <c r="Q54" s="26" t="s">
-        <v>316</v>
+        <v>388</v>
       </c>
       <c r="R54" s="26" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="S54" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T54" s="27"/>
-      <c r="U54" s="34"/>
-    </row>
-    <row r="55" spans="1:21" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>498</v>
-      </c>
-      <c r="G55" s="29" t="s">
+      <c r="T54" s="31"/>
+      <c r="U54" s="25"/>
+    </row>
+    <row r="55" spans="1:21" ht="30">
+      <c r="A55" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G55" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>495</v>
-      </c>
-      <c r="L55" s="29" t="s">
-        <v>496</v>
-      </c>
-      <c r="M55" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="N55" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="O55" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="P55" s="30">
-        <v>44111</v>
-      </c>
-      <c r="Q55" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="R55" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="S55" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="T55" s="30"/>
-    </row>
-    <row r="56" spans="1:21" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
+      <c r="H55" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="L55" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="N55" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="O55" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="P55" s="31">
+        <v>43788</v>
+      </c>
+      <c r="Q55" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="R55" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S55" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="T55" s="31"/>
+      <c r="U55" s="25"/>
+    </row>
+    <row r="56" spans="1:21" ht="30">
+      <c r="A56" s="26" t="s">
+        <v>394</v>
+      </c>
       <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
+      <c r="C56" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="J56" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>380</v>
+      </c>
       <c r="M56" s="26" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="N56" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="O56" s="26"/>
-      <c r="P56" s="27">
+      <c r="O56" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="P56" s="31">
         <v>43788</v>
       </c>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="34"/>
-    </row>
-    <row r="57" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q56" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="R56" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="S56" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="T56" s="31"/>
+      <c r="U56" s="25"/>
+    </row>
+    <row r="57" spans="1:21" ht="30">
       <c r="A57" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>378</v>
+        <v>399</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="20" t="s">
+        <v>400</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -5222,19 +5113,19 @@
         <v>380</v>
       </c>
       <c r="M57" s="26" t="s">
-        <v>257</v>
+        <v>470</v>
       </c>
       <c r="N57" s="26" t="s">
         <v>110</v>
       </c>
       <c r="O57" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="P57" s="27">
+        <v>403</v>
+      </c>
+      <c r="P57" s="31">
         <v>43788</v>
       </c>
       <c r="Q57" s="26" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="R57" s="26" t="s">
         <v>304</v>
@@ -5242,84 +5133,56 @@
       <c r="S57" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T57" s="27"/>
-      <c r="U57" s="34"/>
-    </row>
-    <row r="58" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>383</v>
-      </c>
+      <c r="T57" s="31"/>
+      <c r="U57" s="25"/>
+    </row>
+    <row r="58" spans="1:21" ht="15">
+      <c r="A58" s="26"/>
       <c r="B58" s="26"/>
-      <c r="C58" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="J58" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="K58" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="L58" s="26" t="s">
-        <v>380</v>
-      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
       <c r="M58" s="26" t="s">
-        <v>470</v>
+        <v>257</v>
       </c>
       <c r="N58" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="O58" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="P58" s="27">
+      <c r="O58" s="26"/>
+      <c r="P58" s="31">
         <v>43788</v>
       </c>
-      <c r="Q58" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="R58" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="S58" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="T58" s="27"/>
-      <c r="U58" s="34"/>
-    </row>
-    <row r="59" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="25"/>
+    </row>
+    <row r="59" spans="1:21" ht="30">
       <c r="A59" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="33" t="s">
-        <v>390</v>
+        <v>404</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>405</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>20</v>
@@ -5328,16 +5191,16 @@
         <v>175</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="K59" s="26" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="L59" s="26" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="M59" s="26" t="s">
         <v>257</v>
@@ -5346,39 +5209,39 @@
         <v>110</v>
       </c>
       <c r="O59" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="P59" s="27">
+        <v>408</v>
+      </c>
+      <c r="P59" s="31">
         <v>43788</v>
       </c>
       <c r="Q59" s="26" t="s">
         <v>382</v>
       </c>
       <c r="R59" s="26" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="S59" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T59" s="27"/>
-      <c r="U59" s="34"/>
-    </row>
-    <row r="60" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T59" s="31"/>
+      <c r="U59" s="25"/>
+    </row>
+    <row r="60" spans="1:21" ht="30">
       <c r="A60" s="26" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B60" s="26"/>
-      <c r="C60" s="33" t="s">
-        <v>395</v>
+      <c r="C60" s="20" t="s">
+        <v>410</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
@@ -5387,16 +5250,16 @@
         <v>175</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="K60" s="26" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="L60" s="26" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="M60" s="26" t="s">
         <v>257</v>
@@ -5405,9 +5268,9 @@
         <v>110</v>
       </c>
       <c r="O60" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="P60" s="27">
+        <v>413</v>
+      </c>
+      <c r="P60" s="31">
         <v>43788</v>
       </c>
       <c r="Q60" s="26" t="s">
@@ -5419,25 +5282,25 @@
       <c r="S60" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T60" s="27"/>
-      <c r="U60" s="34"/>
-    </row>
-    <row r="61" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T60" s="31"/>
+      <c r="U60" s="25"/>
+    </row>
+    <row r="61" spans="1:21" ht="30">
       <c r="A61" s="26" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="B61" s="26"/>
-      <c r="C61" s="33" t="s">
-        <v>400</v>
+      <c r="C61" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="E61" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>20</v>
@@ -5446,88 +5309,116 @@
         <v>175</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="K61" s="26" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="L61" s="26" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="M61" s="26" t="s">
-        <v>470</v>
+        <v>257</v>
       </c>
       <c r="N61" s="26" t="s">
         <v>110</v>
       </c>
       <c r="O61" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="P61" s="27">
+        <v>418</v>
+      </c>
+      <c r="P61" s="31">
         <v>43788</v>
       </c>
       <c r="Q61" s="26" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="R61" s="26" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="S61" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T61" s="27"/>
-      <c r="U61" s="34"/>
-    </row>
-    <row r="62" spans="1:21" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="25"/>
+    </row>
+    <row r="62" spans="1:21" ht="30">
+      <c r="A62" s="26" t="s">
+        <v>419</v>
+      </c>
       <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
+      <c r="C62" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="L62" s="26" t="s">
+        <v>407</v>
+      </c>
       <c r="M62" s="26" t="s">
         <v>257</v>
       </c>
       <c r="N62" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="O62" s="26"/>
-      <c r="P62" s="27">
+      <c r="O62" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="P62" s="31">
         <v>43788</v>
       </c>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="34"/>
-    </row>
-    <row r="63" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q62" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="R62" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="S62" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="T62" s="31"/>
+      <c r="U62" s="25"/>
+    </row>
+    <row r="63" spans="1:21" ht="30">
       <c r="A63" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>405</v>
+        <v>424</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="20" t="s">
+        <v>425</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="E63" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>20</v>
@@ -5554,9 +5445,9 @@
         <v>110</v>
       </c>
       <c r="O63" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="P63" s="27">
+        <v>428</v>
+      </c>
+      <c r="P63" s="31">
         <v>43788</v>
       </c>
       <c r="Q63" s="26" t="s">
@@ -5568,25 +5459,25 @@
       <c r="S63" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T63" s="27"/>
-      <c r="U63" s="34"/>
-    </row>
-    <row r="64" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T63" s="31"/>
+      <c r="U63" s="25"/>
+    </row>
+    <row r="64" spans="1:21" ht="30">
       <c r="A64" s="26" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="B64" s="26"/>
-      <c r="C64" s="33" t="s">
-        <v>410</v>
+      <c r="C64" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="G64" s="26" t="s">
         <v>20</v>
@@ -5613,39 +5504,39 @@
         <v>110</v>
       </c>
       <c r="O64" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="P64" s="27">
+        <v>433</v>
+      </c>
+      <c r="P64" s="31">
         <v>43788</v>
       </c>
       <c r="Q64" s="26" t="s">
         <v>382</v>
       </c>
       <c r="R64" s="26" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="S64" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T64" s="27"/>
-      <c r="U64" s="34"/>
-    </row>
-    <row r="65" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T64" s="31"/>
+      <c r="U64" s="25"/>
+    </row>
+    <row r="65" spans="1:21" ht="30">
       <c r="A65" s="26" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B65" s="26"/>
-      <c r="C65" s="33" t="s">
-        <v>415</v>
+      <c r="C65" s="20" t="s">
+        <v>435</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="E65" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="G65" s="26" t="s">
         <v>20</v>
@@ -5672,9 +5563,9 @@
         <v>110</v>
       </c>
       <c r="O65" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="P65" s="27">
+        <v>438</v>
+      </c>
+      <c r="P65" s="31">
         <v>43788</v>
       </c>
       <c r="Q65" s="26" t="s">
@@ -5686,25 +5577,25 @@
       <c r="S65" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T65" s="27"/>
-      <c r="U65" s="34"/>
-    </row>
-    <row r="66" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T65" s="31"/>
+      <c r="U65" s="25"/>
+    </row>
+    <row r="66" spans="1:21" ht="30">
       <c r="A66" s="26" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B66" s="26"/>
-      <c r="C66" s="33" t="s">
-        <v>420</v>
+      <c r="C66" s="20" t="s">
+        <v>440</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="E66" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -5731,9 +5622,9 @@
         <v>110</v>
       </c>
       <c r="O66" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="P66" s="27">
+        <v>443</v>
+      </c>
+      <c r="P66" s="31">
         <v>43788</v>
       </c>
       <c r="Q66" s="26" t="s">
@@ -5745,25 +5636,25 @@
       <c r="S66" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T66" s="27"/>
-      <c r="U66" s="34"/>
-    </row>
-    <row r="67" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T66" s="31"/>
+      <c r="U66" s="25"/>
+    </row>
+    <row r="67" spans="1:21" ht="30">
       <c r="A67" s="26" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B67" s="26"/>
-      <c r="C67" s="33" t="s">
-        <v>425</v>
+      <c r="C67" s="20" t="s">
+        <v>445</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="E67" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>20</v>
@@ -5790,9 +5681,9 @@
         <v>110</v>
       </c>
       <c r="O67" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="P67" s="27">
+        <v>448</v>
+      </c>
+      <c r="P67" s="31">
         <v>43788</v>
       </c>
       <c r="Q67" s="26" t="s">
@@ -5804,25 +5695,25 @@
       <c r="S67" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T67" s="27"/>
-      <c r="U67" s="34"/>
-    </row>
-    <row r="68" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T67" s="31"/>
+      <c r="U67" s="25"/>
+    </row>
+    <row r="68" spans="1:21" ht="30">
       <c r="A68" s="26" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="B68" s="26"/>
-      <c r="C68" s="33" t="s">
-        <v>430</v>
+      <c r="C68" s="20" t="s">
+        <v>450</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -5849,9 +5740,9 @@
         <v>110</v>
       </c>
       <c r="O68" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="P68" s="27">
+        <v>453</v>
+      </c>
+      <c r="P68" s="31">
         <v>43788</v>
       </c>
       <c r="Q68" s="26" t="s">
@@ -5863,25 +5754,25 @@
       <c r="S68" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T68" s="27"/>
-      <c r="U68" s="34"/>
-    </row>
-    <row r="69" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T68" s="31"/>
+      <c r="U68" s="25"/>
+    </row>
+    <row r="69" spans="1:21" ht="30">
       <c r="A69" s="26" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="B69" s="26"/>
-      <c r="C69" s="33" t="s">
-        <v>435</v>
+      <c r="C69" s="20" t="s">
+        <v>455</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -5908,9 +5799,9 @@
         <v>110</v>
       </c>
       <c r="O69" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="P69" s="27">
+        <v>458</v>
+      </c>
+      <c r="P69" s="31">
         <v>43788</v>
       </c>
       <c r="Q69" s="26" t="s">
@@ -5922,25 +5813,25 @@
       <c r="S69" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T69" s="27"/>
-      <c r="U69" s="34"/>
-    </row>
-    <row r="70" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T69" s="31"/>
+      <c r="U69" s="25"/>
+    </row>
+    <row r="70" spans="1:21" ht="30">
       <c r="A70" s="26" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="B70" s="26"/>
-      <c r="C70" s="33" t="s">
-        <v>440</v>
+      <c r="C70" s="20" t="s">
+        <v>460</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
@@ -5967,9 +5858,9 @@
         <v>110</v>
       </c>
       <c r="O70" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="P70" s="27">
+        <v>463</v>
+      </c>
+      <c r="P70" s="31">
         <v>43788</v>
       </c>
       <c r="Q70" s="26" t="s">
@@ -5981,25 +5872,25 @@
       <c r="S70" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T70" s="27"/>
-      <c r="U70" s="34"/>
-    </row>
-    <row r="71" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T70" s="31"/>
+      <c r="U70" s="25"/>
+    </row>
+    <row r="71" spans="1:21" ht="30">
       <c r="A71" s="26" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="B71" s="26"/>
-      <c r="C71" s="33" t="s">
-        <v>445</v>
+      <c r="C71" s="20" t="s">
+        <v>465</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>303</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -6026,9 +5917,9 @@
         <v>110</v>
       </c>
       <c r="O71" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="P71" s="27">
+        <v>468</v>
+      </c>
+      <c r="P71" s="31">
         <v>43788</v>
       </c>
       <c r="Q71" s="26" t="s">
@@ -6040,578 +5931,342 @@
       <c r="S71" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="T71" s="27"/>
-      <c r="U71" s="34"/>
-    </row>
-    <row r="72" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="G72" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I72" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="J72" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="K72" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="L72" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="M72" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="N72" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="O72" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="P72" s="27">
-        <v>43788</v>
-      </c>
-      <c r="Q72" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="R72" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="S72" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="T72" s="27"/>
-      <c r="U72" s="34"/>
-    </row>
-    <row r="73" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I73" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="J73" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="K73" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="L73" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="M73" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="N73" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="O73" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="P73" s="27">
-        <v>43788</v>
-      </c>
-      <c r="Q73" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="R73" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="S73" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="T73" s="27"/>
-      <c r="U73" s="34"/>
-    </row>
-    <row r="74" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="J74" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="K74" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="L74" s="26" t="s">
-        <v>407</v>
+      <c r="T71" s="31"/>
+      <c r="U71" s="25"/>
+    </row>
+    <row r="72" spans="1:21" s="35" customFormat="1" ht="33" customHeight="1">
+      <c r="A72" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K73" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="L73" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M73" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="N73" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O73" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="P73" s="32">
+        <v>42507</v>
+      </c>
+      <c r="Q73" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="R73" s="26"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="31"/>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="L74" s="28" t="s">
+        <v>244</v>
       </c>
       <c r="M74" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="N74" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="O74" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="P74" s="27">
-        <v>43788</v>
-      </c>
-      <c r="Q74" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="R74" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="S74" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="T74" s="27"/>
-      <c r="U74" s="34"/>
-    </row>
-    <row r="75" spans="1:21" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I75" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="J75" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="K75" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="L75" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="M75" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="N75" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="O75" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="P75" s="27">
-        <v>43788</v>
-      </c>
-      <c r="Q75" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="R75" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="S75" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="T75" s="27"/>
-      <c r="U75" s="34"/>
-    </row>
-    <row r="76" spans="1:21" s="38" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E77" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="N74" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O74" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="P74" s="32">
+        <v>41002</v>
+      </c>
+      <c r="Q74" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R74" s="26"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="31"/>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G77" s="17" t="s">
+      <c r="F75" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G75" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="17" t="s">
+      <c r="H75" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I77" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="J77" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="K77" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="L77" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="M77" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="N77" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O77" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="P77" s="20">
-        <v>42507</v>
-      </c>
-      <c r="Q77" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="19"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="17" t="s">
+      <c r="I75" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="L75" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M75" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="N75" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O75" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="P75" s="32">
+        <v>41002</v>
+      </c>
+      <c r="Q75" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="31"/>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G78" s="17" t="s">
+      <c r="F76" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G76" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H78" s="17" t="s">
+      <c r="H76" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I78" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="J78" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K78" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="L78" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="M78" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="N78" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O78" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="P78" s="20">
+      <c r="I76" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="L76" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="M76" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="N76" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O76" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="P76" s="32">
         <v>41002</v>
       </c>
-      <c r="Q78" s="17" t="s">
+      <c r="Q76" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="19"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="J79" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K79" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="L79" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="M79" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="N79" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O79" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="P79" s="20">
-        <v>41002</v>
-      </c>
-      <c r="Q79" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="19"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="J80" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L80" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="M80" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="N80" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O80" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="P80" s="20">
-        <v>41002</v>
-      </c>
-      <c r="Q80" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="19"/>
-    </row>
-    <row r="81" spans="1:20" s="38" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="R76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="31"/>
+    </row>
+    <row r="77" spans="1:21" s="35" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A77" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" s="16" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A78" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+    </row>
+    <row r="79" spans="1:21" s="16" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A79" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+    </row>
+    <row r="80" spans="1:21" s="16" customFormat="1">
+      <c r="A80" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+    </row>
+    <row r="81" spans="1:20" s="16" customFormat="1">
+      <c r="A81" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-    </row>
-    <row r="86" spans="1:20" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="35" t="s">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="1:20" s="5" customFormat="1" ht="15">
+      <c r="A82" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="24" t="s">
+    <row r="83" spans="1:20">
+      <c r="A83" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6620,16 +6275,16 @@
     <sortCondition ref="A33:A36"/>
   </sortState>
   <mergeCells count="6">
-    <mergeCell ref="A76:XFD76"/>
-    <mergeCell ref="A81:XFD81"/>
+    <mergeCell ref="A72:XFD72"/>
+    <mergeCell ref="A77:XFD77"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A4:XFD4"/>
     <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A27:XFD27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="29" fitToHeight="0" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup scale="30" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Bold"&amp;18&amp;K000000PDS Namespace Registry</oddHeader>
   </headerFooter>
@@ -6638,293 +6293,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="141.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="141.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:3">
+      <c r="A2" s="9">
         <v>42080</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:3">
+      <c r="A3" s="9">
         <v>42119</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:3">
+      <c r="A4" s="9">
         <v>42131</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:3">
+      <c r="A5" s="9">
         <v>42158</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:3">
+      <c r="A6" s="9">
         <v>42248</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:3">
+      <c r="A7" s="9">
         <v>42249</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:3">
+      <c r="A8" s="9">
         <v>42507</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:3">
+      <c r="A9" s="9">
         <v>42582</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:3">
+      <c r="A10" s="9">
         <v>42724</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+    <row r="11" spans="1:3">
+      <c r="A11" s="23">
         <v>42835</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="7" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="7" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+    <row r="20" spans="1:3">
+      <c r="A20" s="11">
         <v>42839</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="21" spans="1:3">
+      <c r="A21" s="11">
         <v>42839</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+    <row r="22" spans="1:3">
+      <c r="A22" s="13">
         <v>42858</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+    <row r="23" spans="1:3">
+      <c r="A23" s="13">
         <v>42858</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:3">
+      <c r="A24" s="9">
         <v>42928</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:3">
+      <c r="A25" s="9">
         <v>42969</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+    <row r="26" spans="1:3">
+      <c r="A26" s="21">
         <v>42969</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="27" spans="1:3">
+      <c r="A27" s="9">
         <v>43718</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="10" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>43804</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -6933,6 +6577,5 @@
     <mergeCell ref="B11:B19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>